--- a/class_schedules_fall_2019/GENDER, SEXUALITY, & FEMINIST STUDIES (GSFS).xlsx
+++ b/class_schedules_fall_2019/GENDER, SEXUALITY, & FEMINIST STUDIES (GSFS).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>101</t>
   </si>
@@ -40,9 +40,15 @@
     <t>995H</t>
   </si>
   <si>
+    <t>995</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>13018</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>12253</t>
   </si>
   <si>
+    <t>14581</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -94,40 +103,46 @@
     <t>Feminist Resrch Methodologies</t>
   </si>
   <si>
+    <t xml:space="preserve">Private Reading </t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
     <t>Senior</t>
   </si>
   <si>
-    <t>Private Reading -</t>
-  </si>
-  <si>
-    <t>TR</t>
+    <t>Honors</t>
+  </si>
+  <si>
+    <t>0300</t>
+  </si>
+  <si>
+    <t>1100</t>
   </si>
   <si>
     <t>Capstone</t>
   </si>
   <si>
-    <t>Honors</t>
+    <t>TBA</t>
   </si>
   <si>
     <t>Half</t>
   </si>
   <si>
-    <t>0300-0415pm</t>
-  </si>
-  <si>
-    <t>1100-1215pm</t>
-  </si>
-  <si>
-    <t>0300-0420pm</t>
-  </si>
-  <si>
-    <t>TBA</t>
+    <t>0415pm</t>
+  </si>
+  <si>
+    <t>1215pm</t>
+  </si>
+  <si>
+    <t>0420pm</t>
+  </si>
+  <si>
+    <t>Mattson Greggor</t>
   </si>
   <si>
     <t>Bachrach Emilia</t>
-  </si>
-  <si>
-    <t>Mattson Greggor</t>
   </si>
   <si>
     <t>Cerankowski KJ</t>
@@ -488,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -525,8 +540,11 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -534,34 +552,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -569,34 +590,37 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -604,34 +628,37 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -639,34 +666,37 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -674,34 +704,34 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -709,31 +739,31 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
         <v>20</v>
       </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -741,31 +771,31 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -773,31 +803,66 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
         <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
